--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08123946059800825</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.59146303020577</v>
+        <v>-2.586339696521086</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1720577460327043</v>
+        <v>-0.1686049850816335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1543663108767656</v>
+        <v>0.1550384434625419</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06198571213475171</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.713557561197873</v>
+        <v>-2.708888618417367</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.266203881854181</v>
+        <v>-0.2625053228703808</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1837785156715872</v>
+        <v>0.1844811442912009</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03458600209050729</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.922237041381807</v>
+        <v>-2.917302173186239</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3790861709446813</v>
+        <v>-0.3754858091898375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1829069390245142</v>
+        <v>0.183527228352767</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0003725996024831453</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.078613993772565</v>
+        <v>-3.07343271762359</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4484243931601076</v>
+        <v>-0.4446075095650182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2383676360818918</v>
+        <v>0.2388092186518574</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03424570910591407</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.258597925956856</v>
+        <v>-3.252984216048067</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4898739924312288</v>
+        <v>-0.4865718818873149</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2348923080657814</v>
+        <v>0.2355699299376485</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.06227383164892171</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.043869252500935</v>
+        <v>-3.039307655759536</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5341926585657729</v>
+        <v>-0.5306599980060482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2428151776567387</v>
+        <v>0.2431335562500012</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.08148009645729808</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.725740726715915</v>
+        <v>-2.721311482761371</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5545676686932186</v>
+        <v>-0.5514277970493195</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2571574623704693</v>
+        <v>0.2575990449404349</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.09427808852509957</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.298893230379878</v>
+        <v>-2.295606977773559</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5975841541829057</v>
+        <v>-0.5946845912856453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2496603174118822</v>
+        <v>0.2498451233769368</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1049010430413917</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.889696838428929</v>
+        <v>-1.885982421507533</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6775069398226177</v>
+        <v>-0.6740029455347001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2877699910571311</v>
+        <v>0.2875528592962088</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1177190189428116</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.324673032616972</v>
+        <v>-1.321682591538877</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8237640883447717</v>
+        <v>-0.8202058111166235</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3173999375335517</v>
+        <v>0.317544488733941</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.138320141712054</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7995917120838927</v>
+        <v>-0.7969775920633505</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.094495068419023</v>
+        <v>-1.090346997896459</v>
       </c>
       <c r="G12" t="n">
-        <v>0.349577522676749</v>
+        <v>0.3494982329887718</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.169617637516239</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1847983790492945</v>
+        <v>-0.182294044750567</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.467401790024139</v>
+        <v>-1.46276151351544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.419073714347453</v>
+        <v>0.4191847199106211</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2140534573581454</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4722789247422163</v>
+        <v>0.4734084978355537</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.81793601128546</v>
+        <v>-1.812976746262821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5286660913075742</v>
+        <v>0.5286301059876461</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2726775867666312</v>
       </c>
       <c r="E15" t="n">
-        <v>1.048434392825502</v>
+        <v>1.047940357077336</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.177055475992686</v>
+        <v>-2.172349328050898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6222090155797472</v>
+        <v>0.6220681239034184</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3439680810454895</v>
       </c>
       <c r="E16" t="n">
-        <v>1.651398314334571</v>
+        <v>1.6499863479679</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.590879946038799</v>
+        <v>-2.587448532311414</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7295666431802635</v>
+        <v>0.7294397796795</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4286819562756483</v>
       </c>
       <c r="E17" t="n">
-        <v>2.177804382577548</v>
+        <v>2.175988038802192</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.858663789403003</v>
+        <v>-2.855753857854239</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8609771025890164</v>
+        <v>0.8611045760104568</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5282420644983855</v>
       </c>
       <c r="E18" t="n">
-        <v>2.609711170927211</v>
+        <v>2.607461783471364</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.118472919918727</v>
+        <v>-3.117606222637068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9996078029691128</v>
+        <v>0.9998414025883072</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6452832024289743</v>
       </c>
       <c r="E19" t="n">
-        <v>2.961487800607067</v>
+        <v>2.95896272900533</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.344168272102917</v>
+        <v>-3.345507352948717</v>
       </c>
       <c r="G19" t="n">
-        <v>1.105939543991339</v>
+        <v>1.106966650410983</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7793857678854047</v>
       </c>
       <c r="E20" t="n">
-        <v>3.333107589584245</v>
+        <v>3.330267798913306</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.580536016288844</v>
+        <v>-3.582156575526964</v>
       </c>
       <c r="G20" t="n">
-        <v>1.208673362941428</v>
+        <v>1.209763291190777</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.924365276865853</v>
       </c>
       <c r="E21" t="n">
-        <v>3.640201430485539</v>
+        <v>3.636195471480657</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.733053085676802</v>
+        <v>-3.735010931049163</v>
       </c>
       <c r="G21" t="n">
-        <v>1.362767382239118</v>
+        <v>1.363197376316226</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.072650580311928</v>
       </c>
       <c r="E22" t="n">
-        <v>3.857018472338645</v>
+        <v>3.853057647463843</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.888690509247003</v>
+        <v>-3.891542498331477</v>
       </c>
       <c r="G22" t="n">
-        <v>1.448788764725634</v>
+        <v>1.449887231864457</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.213782446554817</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0734512641654</v>
+        <v>4.069986914721471</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.03710586208383</v>
+        <v>-4.039456801332356</v>
       </c>
       <c r="G23" t="n">
-        <v>1.547370853629099</v>
+        <v>1.548773061264943</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.339591498880728</v>
       </c>
       <c r="E24" t="n">
-        <v>4.203277759576639</v>
+        <v>4.200525797483151</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.154325602067024</v>
+        <v>-4.156518571860271</v>
       </c>
       <c r="G24" t="n">
-        <v>1.609825511086747</v>
+        <v>1.610858106792481</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.443657164234897</v>
       </c>
       <c r="E25" t="n">
-        <v>4.313769769534963</v>
+        <v>4.311498424934753</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.126874902168624</v>
+        <v>-4.129132218593269</v>
       </c>
       <c r="G25" t="n">
-        <v>1.612467077537743</v>
+        <v>1.613212400604729</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.521029265306058</v>
       </c>
       <c r="E26" t="n">
-        <v>4.310367632000062</v>
+        <v>4.3092465977962</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.009279756008891</v>
+        <v>-4.011385812105702</v>
       </c>
       <c r="G26" t="n">
-        <v>1.573366282792778</v>
+        <v>1.573635257811224</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.571004399711525</v>
       </c>
       <c r="E27" t="n">
-        <v>4.422097780932186</v>
+        <v>4.421270728494515</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.931403254239669</v>
+        <v>-3.933671854196834</v>
       </c>
       <c r="G27" t="n">
-        <v>1.496898697786844</v>
+        <v>1.497598886723751</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.593012971104992</v>
       </c>
       <c r="E28" t="n">
-        <v>4.342066429412013</v>
+        <v>4.3419224881323</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.790146845346173</v>
+        <v>-3.792533464954288</v>
       </c>
       <c r="G28" t="n">
-        <v>1.440930546726412</v>
+        <v>1.441558155102786</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.588352051682818</v>
       </c>
       <c r="E29" t="n">
-        <v>4.262474220779098</v>
+        <v>4.263052425580655</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.729646678697164</v>
+        <v>-3.731648438358251</v>
       </c>
       <c r="G29" t="n">
-        <v>1.368518934220852</v>
+        <v>1.368958077108111</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.558520272836925</v>
       </c>
       <c r="E30" t="n">
-        <v>4.094023888592113</v>
+        <v>4.095641398226848</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.582271240614193</v>
+        <v>-3.584247078646518</v>
       </c>
       <c r="G30" t="n">
-        <v>1.286247344054984</v>
+        <v>1.286524857962904</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.506537718972162</v>
       </c>
       <c r="E31" t="n">
-        <v>3.85380663005489</v>
+        <v>3.856997735035636</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.469459092401518</v>
+        <v>-3.470114757129022</v>
       </c>
       <c r="G31" t="n">
-        <v>1.198336427311902</v>
+        <v>1.198405958269051</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.436914701584147</v>
       </c>
       <c r="E32" t="n">
-        <v>3.63259206012243</v>
+        <v>3.637066438207054</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.368754174582631</v>
+        <v>-3.369550121065787</v>
       </c>
       <c r="G32" t="n">
-        <v>1.134173382038683</v>
+        <v>1.134258770933428</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.353873885795335</v>
       </c>
       <c r="E33" t="n">
-        <v>3.428502842951702</v>
+        <v>3.43386160601761</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.238839545633603</v>
+        <v>-3.239173172243784</v>
       </c>
       <c r="G33" t="n">
-        <v>1.025267165839904</v>
+        <v>1.025553828557975</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.263006653771194</v>
       </c>
       <c r="E34" t="n">
-        <v>3.141368046276311</v>
+        <v>3.147089102224208</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.049468324313482</v>
+        <v>-3.05028836266337</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9483573883433269</v>
+        <v>0.9482787085760264</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.16860566683675</v>
       </c>
       <c r="E35" t="n">
-        <v>2.799230602971781</v>
+        <v>2.805662826428766</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.962517422715603</v>
+        <v>-2.963448771588997</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9014855942559155</v>
+        <v>0.9015246291792273</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.074274579702362</v>
       </c>
       <c r="E36" t="n">
-        <v>2.481840081205627</v>
+        <v>2.489647065868002</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.864568431474602</v>
+        <v>-2.865299726366022</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8232846146866631</v>
+        <v>0.8236072627246629</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9840157402155764</v>
       </c>
       <c r="E37" t="n">
-        <v>2.175234176845732</v>
+        <v>2.183581551227705</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.816554865880318</v>
+        <v>-2.817558795314245</v>
       </c>
       <c r="G37" t="n">
-        <v>0.77252884572972</v>
+        <v>0.773150964820003</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8991597898691168</v>
       </c>
       <c r="E38" t="n">
-        <v>1.928824393677486</v>
+        <v>1.937359623627898</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.718143554766342</v>
+        <v>-2.719020010778829</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7809603891650851</v>
+        <v>0.7814324677688882</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8215167618437811</v>
       </c>
       <c r="E39" t="n">
-        <v>1.638977889673274</v>
+        <v>1.64784430655116</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.564789979170224</v>
+        <v>-2.567130244806906</v>
       </c>
       <c r="G39" t="n">
-        <v>0.687507733153071</v>
+        <v>0.6881017958922236</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7511524116556008</v>
       </c>
       <c r="E40" t="n">
-        <v>1.403170967549616</v>
+        <v>1.412064830857957</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.468514000345543</v>
+        <v>-2.470942094559677</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6264882190478115</v>
+        <v>0.6273408881539053</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6869622943750814</v>
       </c>
       <c r="E41" t="n">
-        <v>1.12051237872088</v>
+        <v>1.129088473356635</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.361462552924754</v>
+        <v>-2.364048616594166</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5918002003991193</v>
+        <v>0.592493070287905</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6296344267790821</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8530560627600894</v>
+        <v>0.8624439618165954</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.235211412520613</v>
+        <v>-2.238631237755139</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5630137742186412</v>
+        <v>0.5634486476611625</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5776667844768817</v>
       </c>
       <c r="E43" t="n">
-        <v>0.693230618862998</v>
+        <v>0.7021299714574289</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.104876853185644</v>
+        <v>-2.10868885741532</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4879691341515601</v>
+        <v>0.4889090219144289</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5308250037358929</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5059910703081117</v>
+        <v>0.5141725462660102</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.024106277805252</v>
+        <v>-2.027903034018009</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4255803481270012</v>
+        <v>0.4266806450278547</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4880934995589111</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4319668275332302</v>
+        <v>0.4396518280602557</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.92337421851625</v>
+        <v>-1.927577791820398</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3818411066353678</v>
+        <v>0.3828974892474954</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4478682357641015</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2182823382759016</v>
+        <v>0.2256520098130483</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.865373811760893</v>
+        <v>-1.869534080696992</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2935489894693189</v>
+        <v>0.2945943935092651</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4104255307408348</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06740199102399723</v>
+        <v>0.07437216451787404</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.768945962687702</v>
+        <v>-1.773505729667071</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2580467267171679</v>
+        <v>0.2584956283352545</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3740669905507913</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01244996781102746</v>
+        <v>0.01869433569957408</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.747492002883089</v>
+        <v>-1.751234476155615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2236106053079726</v>
+        <v>0.2242223557467509</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3388553867153768</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08098683026339128</v>
+        <v>-0.07575005133283245</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.664144512643437</v>
+        <v>-1.668065082753573</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1902009803977442</v>
+        <v>0.1904071335864851</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3043376971046645</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1825361832592359</v>
+        <v>-0.1773616162377054</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.639045056953901</v>
+        <v>-1.642323990512098</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1417189957237178</v>
+        <v>0.1425076231587531</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.269975399344637</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2777472405823148</v>
+        <v>-0.2727599192085459</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.636931681808969</v>
+        <v>-1.639446384759201</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08846987104022865</v>
+        <v>0.08901270044253443</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.236337388967607</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3564459154237934</v>
+        <v>-0.3518416242350224</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.6110618963047</v>
+        <v>-1.612858112697723</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04752894561351526</v>
+        <v>0.04822669486771504</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2032239942896999</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4608173713909514</v>
+        <v>-0.4557592992186797</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.557798743445646</v>
+        <v>-1.559474195544672</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03013888727807463</v>
+        <v>0.03023525474500082</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1711885210200893</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5284807514280274</v>
+        <v>-0.5239941749298687</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.579449707628848</v>
+        <v>-1.580725661684605</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.002078342709111284</v>
+        <v>-0.001488549414695912</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1401750877679639</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5699992717356213</v>
+        <v>-0.5659945325720934</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.535036503789408</v>
+        <v>-1.536910790029055</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04241910618990458</v>
+        <v>-0.04194153830001086</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1102525715925678</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6368715846549551</v>
+        <v>-0.633419433624561</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.532268073837648</v>
+        <v>-1.53355439654491</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0895714637886202</v>
+        <v>-0.08935982131378863</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.08160572939408527</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7138551625534182</v>
+        <v>-0.7105957464568765</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.598907397058465</v>
+        <v>-1.600008913800671</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1084338706377306</v>
+        <v>-0.1080294932290467</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.05365406831118233</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.776393989064457</v>
+        <v>-0.7730247872461008</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.616204137530363</v>
+        <v>-1.617093401877061</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1325818500715397</v>
+        <v>-0.1321317286120997</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.02604862352775202</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9216374494218558</v>
+        <v>-0.9185152654775824</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.612551932517995</v>
+        <v>-1.613058166679696</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1403394311590983</v>
+        <v>-0.1402881978222515</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.001605890767301274</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.038178652652168</v>
+        <v>-1.03507415640752</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.646993543213281</v>
+        <v>-1.648034067887814</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1717052118815439</v>
+        <v>-0.1719491801522431</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.02956867827032499</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.154132502270771</v>
+        <v>-1.150320498041096</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.69239725823176</v>
+        <v>-1.693378620600648</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1802623989763192</v>
+        <v>-0.1798305751371815</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.05750919053993373</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.236180251548274</v>
+        <v>-1.232899488228046</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.643349877090388</v>
+        <v>-1.645299793493952</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2112305114175251</v>
+        <v>-0.2109414090167465</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0850155159543672</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.27936751482745</v>
+        <v>-1.276142864209483</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.737535047835177</v>
+        <v>-1.738614607433021</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2324789279540739</v>
+        <v>-0.2324551410476807</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1112143874576466</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.372246845403321</v>
+        <v>-1.369052080898515</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.804763554429732</v>
+        <v>-1.806087082298275</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2411544396601383</v>
+        <v>-0.2413807202312118</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1351723741509182</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.388373758017216</v>
+        <v>-1.384325104564963</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.880220500874294</v>
+        <v>-1.881167707685284</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2664777362380409</v>
+        <v>-0.2672273287497643</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1558781992693431</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.430523546225244</v>
+        <v>-1.42674325787076</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.952257012163654</v>
+        <v>-1.953088334046062</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2947902540526858</v>
+        <v>-0.2953397925824358</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1722702834145127</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.462246130543588</v>
+        <v>-1.458607953706786</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.050675642325751</v>
+        <v>-2.051170897915271</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3253692371021264</v>
+        <v>-0.3253515494025007</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1837190251138267</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.475786369567395</v>
+        <v>-1.471870678822672</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.161248161813406</v>
+        <v>-2.161958719401818</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3734840495287504</v>
+        <v>-0.3740555452028634</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.189791727302325</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.466436285592847</v>
+        <v>-1.461961907508223</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.293693656610601</v>
+        <v>-2.293484453818476</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3556920534673328</v>
+        <v>-0.3560506868252607</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1902911600577384</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.452045817145653</v>
+        <v>-1.447636090652765</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.403530001841421</v>
+        <v>-2.403200644675977</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3967677713636075</v>
+        <v>-0.3968897554989572</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1852399269793281</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.538234927818275</v>
+        <v>-1.533079268337723</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.506078404905779</v>
+        <v>-2.504923825064695</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4304890657396542</v>
+        <v>-0.4301139645234541</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1750866049912013</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.562363389790428</v>
+        <v>-1.556836288617737</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.630421103512376</v>
+        <v>-2.629123192312256</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4290093981778634</v>
+        <v>-0.4287715291139316</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1603984647238643</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.534188714048728</v>
+        <v>-1.528437162066994</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.76062148029846</v>
+        <v>-2.759118025830276</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4795980488693776</v>
+        <v>-0.4798103012648859</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1418549279023935</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.476362744606921</v>
+        <v>-1.470947258918075</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.847473574746707</v>
+        <v>-2.845764577010459</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5191989785692754</v>
+        <v>-0.5194337980298235</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1203994271236775</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.455956628524962</v>
+        <v>-1.449997093592456</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.966229399954291</v>
+        <v>-2.964647875639483</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5284197593603526</v>
+        <v>-0.5283294911001939</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.09674949106651742</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.331332146565708</v>
+        <v>-1.325210982653864</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.001814306958142</v>
+        <v>-3.000013516160043</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4989502220219167</v>
+        <v>-0.4992527426775837</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.0717814633916308</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.219759357168186</v>
+        <v>-1.214213348454515</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.043027561967023</v>
+        <v>-3.041286848355584</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5135163476240138</v>
+        <v>-0.5135340353236395</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.04578994401929317</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.027253753490257</v>
+        <v>-1.021998676939395</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.061423684458759</v>
+        <v>-3.059645155765362</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5044437775573865</v>
+        <v>-0.5043217934220369</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.01920231932043009</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8222417263356085</v>
+        <v>-0.8178265105566294</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.117903863927321</v>
+        <v>-3.116112526899713</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5160371497810136</v>
+        <v>-0.5161658430438074</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.008057474279969005</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6381579073622167</v>
+        <v>-0.633789655475347</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.154490870603069</v>
+        <v>-3.152346999424299</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4698252898658434</v>
+        <v>-0.4698307791519342</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.03627382271724586</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3472409925703118</v>
+        <v>-0.3431892895146744</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.195772131767407</v>
+        <v>-3.193137884364533</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4168982032996772</v>
+        <v>-0.4174477418294272</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06485101989022235</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.05555313804299726</v>
+        <v>-0.0521320929671174</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.156821377508923</v>
+        <v>-3.15374615745676</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3430990212545157</v>
+        <v>-0.3440358594140007</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.09268703114661925</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1644147540261898</v>
+        <v>0.1678412883881604</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.179568369148242</v>
+        <v>-3.17602960938175</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2893302441544371</v>
+        <v>-0.2904122434349882</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1178608184013712</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4694793888359427</v>
+        <v>0.472216712833188</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.076064525343758</v>
+        <v>-3.073025290611523</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2347783289054141</v>
+        <v>-0.2360719706607967</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1376387665432123</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6885598463204614</v>
+        <v>0.691204462374841</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.990424953200887</v>
+        <v>-2.98732777600436</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1930768323947959</v>
+        <v>-0.194511975747184</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1493980324663138</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9999621668823033</v>
+        <v>1.001696171366298</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.941010399812112</v>
+        <v>-2.937382591626815</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.183303463470585</v>
+        <v>-0.1847203092026707</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1507967668903634</v>
       </c>
       <c r="E87" t="n">
-        <v>1.204191055888007</v>
+        <v>1.205744523851684</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.828118351990784</v>
+        <v>-2.823917218369343</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1647905411692512</v>
+        <v>-0.1656474797200822</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1400607891318467</v>
       </c>
       <c r="E88" t="n">
-        <v>1.359348166925268</v>
+        <v>1.361068753154375</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.669320014513337</v>
+        <v>-2.664616306254255</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1237855740714792</v>
+        <v>-0.1245516344414748</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1165265922630154</v>
       </c>
       <c r="E89" t="n">
-        <v>1.451799333186062</v>
+        <v>1.453528458304643</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.430106075489364</v>
+        <v>-2.425632917246094</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1225931791484368</v>
+        <v>-0.1237745954992978</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08132099939330065</v>
       </c>
       <c r="E90" t="n">
-        <v>1.5204001613033</v>
+        <v>1.52245010469785</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.170486020383433</v>
+        <v>-2.166370885577413</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1092700718855522</v>
+        <v>-0.1101465278980392</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.0365649183281745</v>
       </c>
       <c r="E91" t="n">
-        <v>1.545142203476262</v>
+        <v>1.547729486987027</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.80315092416041</v>
+        <v>-1.799950060448836</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09236916993286354</v>
+        <v>-0.09277964654831498</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01457456572792958</v>
       </c>
       <c r="E92" t="n">
-        <v>1.55956926716406</v>
+        <v>1.561443553403707</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.501792167382578</v>
+        <v>-1.49870657867891</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06970512750558246</v>
+        <v>-0.07070844701883301</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06906513859678981</v>
       </c>
       <c r="E93" t="n">
-        <v>1.550646127663236</v>
+        <v>1.552621050814547</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.160602540809715</v>
+        <v>-1.158373280736201</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04173965455600725</v>
+        <v>-0.04279176772339765</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1223208282536428</v>
       </c>
       <c r="E94" t="n">
-        <v>1.543242910488869</v>
+        <v>1.545200145940553</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8446270350136158</v>
+        <v>-0.8433401023856774</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06308626832151253</v>
+        <v>-0.06402066679829055</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1708368414149952</v>
       </c>
       <c r="E95" t="n">
-        <v>1.468764886730486</v>
+        <v>1.470368978110334</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6178237619201131</v>
+        <v>-0.6172095717986279</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1316797773906294</v>
+        <v>-0.1325537937204093</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.211602534536322</v>
       </c>
       <c r="E96" t="n">
-        <v>1.379936039368899</v>
+        <v>1.381079030717125</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3563251511297973</v>
+        <v>-0.3566130336892224</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1905542004757659</v>
+        <v>-0.1911409441667975</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2411696628688463</v>
       </c>
       <c r="E97" t="n">
-        <v>1.274872933354309</v>
+        <v>1.275526768319783</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.174755425185961</v>
+        <v>-0.1757819216849279</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2182305710245625</v>
+        <v>-0.2187276563761122</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2603106618463473</v>
       </c>
       <c r="E98" t="n">
-        <v>1.181600203941936</v>
+        <v>1.1815617789393</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0588851347000719</v>
+        <v>-0.05989455342008994</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2749849098373228</v>
+        <v>-0.2745677240944271</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2700164208605078</v>
       </c>
       <c r="E99" t="n">
-        <v>1.103483393426074</v>
+        <v>1.102585590189901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1657126652263097</v>
+        <v>0.1636249067498011</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3150243725038026</v>
+        <v>-0.3141399875225179</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2783336041968344</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9294968112562467</v>
+        <v>0.9283959044347164</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2209824571118652</v>
+        <v>0.219080114521088</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3026301744316053</v>
+        <v>-0.3016292946010617</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2900065840160782</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8038342443051676</v>
+        <v>0.8033524069705367</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2644338160440736</v>
+        <v>0.2620612246115236</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.354086742246132</v>
+        <v>-0.3528760497027871</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3157207496383938</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6800868282790774</v>
+        <v>0.6799056818380832</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2646729049493589</v>
+        <v>0.2629358508619804</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3319008776294213</v>
+        <v>-0.3307786235842049</v>
       </c>
     </row>
   </sheetData>
